--- a/data/trans_dic/P20-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P20-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,14%</t>
         </is>
       </c>
     </row>
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>3,68; 12,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>4,54; 16,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>7,66; 20,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>5,17; 15,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>9,21; 23,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>3,13; 12,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>3,09; 11,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>2,35; 7,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>7,31; 15,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>4,94; 12,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,89; 13,44</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,84; 4,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>4,63; 8,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,03; 6,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,15; 8,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>4,54; 8,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>7,62; 12,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>4,91; 9,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,65; 8,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,47; 5,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>6,71; 10,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,36; 7,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,86; 7,73</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,79; 5,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,68; 7,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,22; 5,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,47; 6,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,08; 9,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,46; 11,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,74; 9,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>5,24; 8,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,83; 7,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,47; 8,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,91; 7,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>4,74; 6,94</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,07; 7,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,56; 8,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,89; 6,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,56; 6,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,47; 10,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>7,75; 12,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,53; 9,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,9; 6,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>5,85; 8,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,6; 9,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,58; 7,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,74; 6,16</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,42; 6,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,16; 7,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,83; 6,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,16; 8,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,18; 8,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,95; 10,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,31; 10,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,65; 8,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,64; 6,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,08; 8,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,07; 8,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,77; 7,76</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,48; 4,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,34; 7,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,15; 5,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,04; 6,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,44; 8,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,56; 10,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,86; 8,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,46; 7,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,19; 6,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,18; 8,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,7; 6,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,42; 6,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>1,52; 3,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,98</t>
+          <t>4,85; 8,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 16,34</t>
+          <t>3,79; 7,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 20,64</t>
+          <t>5,19; 8,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 15,36</t>
+          <t>5,27; 9,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 23,03</t>
+          <t>8,7; 13,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 12,84</t>
+          <t>4,98; 8,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 11,7</t>
+          <t>4,85; 8,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,9</t>
+          <t>3,75; 5,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,91</t>
+          <t>7,17; 10,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 12,5</t>
+          <t>5,03; 7,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 13,44</t>
+          <t>5,42; 8,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,98</t>
+          <t>2,79; 5,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,77</t>
+          <t>4,68; 7,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,36</t>
+          <t>3,22; 5,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,14</t>
+          <t>2,03; 5,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,73</t>
+          <t>6,08; 9,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 12,88</t>
+          <t>7,46; 11,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,28</t>
+          <t>5,74; 9,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,4</t>
+          <t>5,25; 8,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,96</t>
+          <t>4,83; 7,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,03</t>
+          <t>6,47; 8,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,26</t>
+          <t>4,91; 7,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,73</t>
+          <t>3,62; 6,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,3</t>
+          <t>4,07; 7,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,7</t>
+          <t>4,56; 8,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,99</t>
+          <t>2,89; 6,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,53</t>
+          <t>3,49; 6,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,64</t>
+          <t>6,47; 10,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,25</t>
+          <t>7,75; 12,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,18</t>
+          <t>5,53; 9,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,54</t>
+          <t>1,95; 5,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,06</t>
+          <t>5,85; 8,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,9</t>
+          <t>6,6; 9,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,14</t>
+          <t>4,58; 7,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,94</t>
+          <t>2,92; 5,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,79</t>
+          <t>3,42; 6,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,68</t>
+          <t>4,16; 7,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,27</t>
+          <t>3,83; 6,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,79</t>
+          <t>5,18; 8,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,52</t>
+          <t>5,18; 8,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,02</t>
+          <t>6,95; 10,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,31</t>
+          <t>7,31; 10,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,41</t>
+          <t>5,11; 8,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,61</t>
+          <t>4,64; 6,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 9,62</t>
+          <t>6,08; 8,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,03</t>
+          <t>6,07; 8,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 6,16</t>
+          <t>5,47; 7,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,02</t>
+          <t>3,48; 4,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,31</t>
+          <t>5,34; 7,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,8</t>
+          <t>4,15; 5,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 8,11</t>
+          <t>4,33; 6,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,38</t>
+          <t>6,44; 8,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,42</t>
+          <t>8,56; 10,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 10,98</t>
+          <t>6,86; 8,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,44</t>
+          <t>4,89; 6,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 6,8</t>
+          <t>5,19; 6,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 8,3</t>
+          <t>7,18; 8,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,54</t>
+          <t>5,7; 6,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,76</t>
+          <t>4,91; 6,35</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,8%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,38%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,51%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,78%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>6,3%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 4,93</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 7,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,15; 5,58</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 6,66</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>6,44; 8,32</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,56; 10,48</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 8,71</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,46; 7,06</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,19; 6,37</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>7,18; 8,56</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,7; 6,98</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 6,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P20-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,77</t>
+          <t>1,49; 3,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,65</t>
+          <t>4,87; 8,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,26</t>
+          <t>3,88; 7,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,98</t>
+          <t>5,25; 9,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,17</t>
+          <t>5,1; 9,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 13,51</t>
+          <t>8,65; 13,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,92</t>
+          <t>4,99; 9,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,13</t>
+          <t>4,74; 7,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 5,92</t>
+          <t>3,71; 5,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,25</t>
+          <t>7,32; 10,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,78</t>
+          <t>4,84; 7,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,01</t>
+          <t>5,47; 8,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,3</t>
+          <t>2,73; 5,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,7</t>
+          <t>4,69; 7,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,99</t>
+          <t>3,28; 5,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,69</t>
+          <t>2,17; 5,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,64</t>
+          <t>6,08; 9,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,25</t>
+          <t>7,58; 11,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,18</t>
+          <t>5,84; 9,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,53</t>
+          <t>5,24; 8,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,06</t>
+          <t>4,79; 7,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,9</t>
+          <t>6,58; 8,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,14</t>
+          <t>5,07; 7,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,37</t>
+          <t>3,39; 6,4</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,79</t>
+          <t>4,07; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,68</t>
+          <t>4,65; 8,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,27</t>
+          <t>2,88; 6,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,71</t>
+          <t>3,52; 6,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,52</t>
+          <t>6,41; 10,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,02</t>
+          <t>7,78; 11,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,31</t>
+          <t>5,46; 9,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,92</t>
+          <t>2,16; 5,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,61</t>
+          <t>5,75; 8,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 9,62</t>
+          <t>6,67; 9,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,03</t>
+          <t>4,61; 7,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,78</t>
+          <t>2,91; 5,7</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,02</t>
+          <t>3,39; 6,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,31</t>
+          <t>4,31; 7,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,8</t>
+          <t>3,93; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,16</t>
+          <t>5,18; 8,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,38</t>
+          <t>5,29; 8,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,42</t>
+          <t>7,02; 10,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 10,98</t>
+          <t>7,44; 11,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,13</t>
+          <t>5,18; 8,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 6,8</t>
+          <t>4,65; 6,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 8,3</t>
+          <t>6,0; 8,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,54</t>
+          <t>5,99; 8,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 7,52</t>
+          <t>5,52; 7,64</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,93</t>
+          <t>3,49; 4,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,05</t>
+          <t>5,29; 7,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,58</t>
+          <t>4,08; 5,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,33</t>
+          <t>4,3; 6,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,32</t>
+          <t>6,57; 8,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 10,48</t>
+          <t>8,54; 10,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 8,71</t>
+          <t>6,82; 8,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,75</t>
+          <t>4,86; 6,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 6,37</t>
+          <t>5,26; 6,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 8,56</t>
+          <t>7,18; 8,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,98</t>
+          <t>5,72; 6,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 6,35</t>
+          <t>4,9; 6,32</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha estado ingresada en un hospital en los últimos 12 meses</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17258</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46538</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36024</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44350</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47142</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>75422</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>46142</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42197</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>64399</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>121959</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>82167</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>86547</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10357; 26261</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34285; 62655</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26172; 48732</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33347; 59076</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35127; 62692</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60273; 94349</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33576; 61082</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32031; 53676</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>51308; 81850</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>102505; 146358</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65260; 101901</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>71682; 105711</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37283</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>61577</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45679</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47488</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>75311</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96332</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>77008</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>63352</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>112594</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>157909</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>122686</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>110840</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26230; 50052</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47760; 78258</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33490; 60424</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25942; 67555</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>58917; 93129</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78287; 115838</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60929; 97423</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>50220; 79375</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>92533; 135669</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>134886; 182916</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>104791; 148908</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>72875; 137663</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37864</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47713</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33193</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>35389</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>57638</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>75460</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55845</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38828</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>95502</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>123173</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>89038</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>74217</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27641; 52370</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35109; 64652</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21868; 47336</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24820; 48114</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43818; 72061</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60459; 93135</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42892; 72284</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20158; 55799</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>78280; 115388</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>102181; 147485</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>71162; 109559</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>47640; 93306</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43022</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53087</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>48584</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>60831</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69250</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>91019</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>94344</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>72467</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>112272</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>144106</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>142929</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>133298</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31982; 56724</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>40862; 69324</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>36867; 64331</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48034; 77560</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54920; 87066</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>73803; 111313</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>77631; 116328</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>56585; 88699</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>92121; 135510</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>119980; 168014</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>118667; 167448</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>111543; 154224</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>135426</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>208914</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>163481</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>188058</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>249341</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>338233</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>273339</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>216843</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>384767</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>547147</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>436820</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>404902</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>114463; 161027</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>181142; 240563</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>138465; 190218</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>148604; 219461</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>221883; 285315</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>304031; 374818</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>241903; 306475</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>177874; 249496</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>350217; 422044</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>501689; 591963</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>396890; 477952</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>348675; 450091</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>